--- a/biology/Zoologie/William_Henry_Edwards/William_Henry_Edwards.xlsx
+++ b/biology/Zoologie/William_Henry_Edwards/William_Henry_Edwards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Henry Edwards est un entomologiste américain, né le 15 mars 1822 à Hunter dans l'État de New York et mort le 2 avril 1909 à Coalburgh.
 Il est le fils de William W. Edwards et de Helen Ann Mann. Son père possède une tannerie et achète, alors que William était tout jeune, une forêt de plus de 400 hectares afin d’y récolter l’écorce nécessaire pour son industrie. C’est là que William Edwards va découvrir la nature et se prendre d’amour pour elle.
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arnold Mallis (1971). American Entomologists. Rutgers University Press (New Brunswick) : xvii + 549 p.</t>
         </is>
